--- a/k-dic-core/src/test/resources/k-dic/k-dic-complete.xlsx
+++ b/k-dic-core/src/test/resources/k-dic/k-dic-complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijian/workspace_gitee/k-dic/k-dic-core/src/test/resources/k-dic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF7031-3BEC-E345-A6AC-DBC9EEE66BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9BCE3-F4C7-1947-8B70-6AA195AC675E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高-HIGH" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t>主词</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,6 +135,10 @@
   </si>
   <si>
     <t>北京欢乐大世界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补全词</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,124 +549,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -676,31 +672,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCCFC8-D579-4341-9B24-181D1A8644B7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -711,33 +699,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE0F59-2A61-C546-B9BC-FA9292AD936D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
